--- a/sample.xlsx
+++ b/sample.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,21 +449,31 @@
           <t>価格</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>売上額</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>りんご</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>500</t>
         </is>
       </c>
     </row>
